--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287551.984715389</v>
+        <v>4359203.777275436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.881805149</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136611.5569707</v>
+        <v>7041504.032822966</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>2.945562993021383</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>27.02615497787628</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U4" t="n">
-        <v>85.87170836083649</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>193.0434215961223</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>142.6581012934775</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.04875807993751</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.14583500121414</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>66.58496257157255</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.3249637174659</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.82466560786639</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>126.7664547002298</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>190.10303946086</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>60.54139430664212</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>73.21532344290732</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5809693952297</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>90.05206244452904</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>170.4824349897576</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.703767256506648</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.40804773322336</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.52163259646434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898708</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692842</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329049</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373962</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789537</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463123</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415204</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689366</v>
+        <v>131.7797102890561</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898708</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692842</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373685</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789537</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463123</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415322</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689379</v>
+        <v>85.42038289176767</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274164</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898708</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373685</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789537</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.287355334634</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415204</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898708</v>
+        <v>53.94831424934038</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885716</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692842</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329049</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373685</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789537</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463123</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415479</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.105462268937</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1563.476704221263</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C2" t="n">
-        <v>1563.476704221263</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.211005614513</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>819.4227530162684</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>408.4368482266609</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221263</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221263</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221263</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>641.3898848520539</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>641.3898848520539</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>657.1506155638803</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>657.1506155638803</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.9013233152508</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.1098286224644</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1098286224644</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1098286224644</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1098286224644</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>539.164327873261</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>121.2005197714478</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2420.580034157336</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.517146813766</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1736.748491543651</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1363.282733282571</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>973.1434013067596</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>570.6651411204305</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>281.2479710834698</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.685527502827</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1186.00103929694</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W13" t="n">
-        <v>896.5838692599799</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619626</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324578</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,19 +5597,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.612261067772</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.48362228133</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>782.7991340754431</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384826</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823783</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>474.7746905116409</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>721.5398184181049</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1028.859951698067</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916677</v>
+        <v>618.0053231677515</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916677</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.02050893291</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727023</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690063</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916677</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916677</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2471.066311049162</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2881.956579893675</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>3128.721707800139</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.041841080101</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744134</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.2811958984813</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1326.711790770268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1326.711790770268</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1326.711790770268</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1326.711790770268</v>
+        <v>1271.389676300432</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.711790770268</v>
+        <v>1271.389676300432</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.722239872251</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.929660728721</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4122.655272935785</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C28" t="n">
-        <v>4075.77845704364</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>3925.661817631304</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="X28" t="n">
-        <v>4343.447852079315</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="Y28" t="n">
-        <v>4122.655272935785</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1028.859951698067</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108352</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229695</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506749</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308323</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504538</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982972</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525401</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254959</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649695</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860497</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116389</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384658</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986524</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771665</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025264</v>
+        <v>4503.958339330004</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859418</v>
+        <v>4249.273851124118</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862499</v>
+        <v>3959.856681087157</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045226</v>
+        <v>3959.856681087157</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010337</v>
+        <v>3959.856681087157</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6695,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6713,7 +6715,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740469</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852603</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480308</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480087</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782176</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255132</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654898</v>
+        <v>1412.633055515713</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489052</v>
+        <v>1412.633055515713</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492132</v>
+        <v>1123.215885478753</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634156</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530667</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6919,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108352</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229695</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506749</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504538</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103156</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917983</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384658</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771665</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025264</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859418</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862499</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045226</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010337</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,7 +7207,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384658</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986521</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025261</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,22 +7411,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7633,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>199.7396287231143</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>62.79465928983115</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814543</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M30" t="n">
-        <v>188.88569463024</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934472</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>180.0237016735873</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>116.9087390531959</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>96.41995887573097</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>105.9521741567355</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>124.7054865406959</v>
       </c>
       <c r="T19" t="n">
-        <v>50.96659166315959</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>77.19475865409879</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.3938331833848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>27.4383749938456</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>248.4338760673214</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24601,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.8387733654045</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>201.715719802113</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.4576421095212</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>200.8169695068097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>113.2985068492874</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600801.4655374266</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630039.2033290759</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642845</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642845</v>
-      </c>
       <c r="N2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.086885968247802e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.4568627596</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.4568627596</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275961</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893265</v>
+        <v>-8560.145664893353</v>
       </c>
       <c r="C6" t="n">
+        <v>581407.7335496509</v>
+      </c>
+      <c r="D6" t="n">
         <v>581407.733549651</v>
       </c>
-      <c r="D6" t="n">
-        <v>581407.7335496511</v>
-      </c>
       <c r="E6" t="n">
-        <v>149865.087428366</v>
+        <v>149865.0874283664</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052621</v>
+        <v>675025.1239052616</v>
       </c>
       <c r="G6" t="n">
         <v>675025.1239052622</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052624</v>
+        <v>675025.1239052621</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.123905262</v>
+        <v>675025.1239052621</v>
       </c>
       <c r="J6" t="n">
         <v>498601.9047126691</v>
       </c>
       <c r="K6" t="n">
-        <v>631356.695077787</v>
+        <v>675025.1239052619</v>
       </c>
       <c r="L6" t="n">
-        <v>685862.2071814995</v>
+        <v>675025.1239052617</v>
       </c>
       <c r="M6" t="n">
-        <v>551061.1919476624</v>
+        <v>540224.1086714251</v>
       </c>
       <c r="N6" t="n">
-        <v>685862.2071814995</v>
+        <v>675025.1239052622</v>
       </c>
       <c r="O6" t="n">
-        <v>685862.2071814996</v>
+        <v>675025.1239052621</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052622</v>
+        <v>675025.1239052621</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>351.7374786276616</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>386.7580150429187</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U4" t="n">
-        <v>200.4101658811412</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>161.6396200245606</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>206.5828674239355</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.78322210199978</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>210.9918083226138</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>257.3378101927846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.89920379082338</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502179</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>125.3711886235982</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28336,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.319358994805075e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>532.9342021211273</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>213.3700978777704</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,13 +36214,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686865</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330521</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36911,28 +36913,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3100716807064</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520628</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494716</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520628</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>490.4480787240536</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520628</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>427.3331161036622</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520628</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4359203.777275436</v>
+        <v>4352186.762383725</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.945562993021383</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>295.568361330683</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>193.0434215961223</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>138.5768413423341</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>41.14583500121414</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>219.3249637174659</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.82466560786639</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W13" t="n">
-        <v>190.10303946086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.21532344290732</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.05206244452904</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>3.703767256506648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>84.52163259646434</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>131.7797102890561</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>85.42038289176767</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274164</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.34633178470847</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94831424934038</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>110.4431276099403</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.578376364604</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>867.6158594241924</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1463.674302457628</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1463.674302457628</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2502.143794132216</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1463.674302457628</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>657.1506155638803</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>429.1610646658629</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.1610646658629</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>586.5435612426379</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2420.580034157336</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2089.517146813766</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1736.748491543651</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.282733282571</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>973.1434013067596</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811258</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>563.1598612984388</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>563.1598612984388</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,37 +5266,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5460,25 +5460,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5697,25 +5697,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>618.0053231677515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.446367141521</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.6537879979912</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1271.389676300432</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.389676300432</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.400125402414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822473</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1102.545770574205</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1102.545770574205</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>1102.545770574205</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>1102.545770574205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,22 +6478,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3778.208216256917</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4503.958339330004</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4249.273851124118</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3959.856681087157</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,58 +6694,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1412.633055515713</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.633055515713</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.215885478753</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>895.2263345807353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>895.2263345807353</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1410.687652593551</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1410.687652593551</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1410.687652593551</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>1121.559013807109</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557903</v>
+        <v>866.8745256012221</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557903</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557903</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M39" t="n">
-        <v>1711.385417156675</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2449295548438</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655742</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286137</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286137</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850835</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>272.8719470256804</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>43.65987261462459</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L33" t="n">
-        <v>223.6742649934472</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>116.9087390531959</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W13" t="n">
-        <v>96.41995887573097</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>124.7054865406959</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>77.19475865409879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>248.4338760673214</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>201.715719802113</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>154.4576421095212</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>200.8169695068097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>22.61802061908431</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>113.2985068492874</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>141.6945157138877</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="13">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754177</v>
-      </c>
       <c r="K2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754179</v>
@@ -26355,7 +26355,7 @@
         <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.086885968247802e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26444,22 +26444,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893353</v>
+        <v>-8560.145664893469</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.7335496509</v>
+        <v>581407.733549651</v>
       </c>
       <c r="D6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283664</v>
+        <v>148890.4961686441</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052616</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.53264554</v>
       </c>
       <c r="J6" t="n">
-        <v>498601.9047126691</v>
+        <v>497627.3134529474</v>
       </c>
       <c r="K6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455405</v>
       </c>
       <c r="L6" t="n">
-        <v>675025.1239052617</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="M6" t="n">
-        <v>540224.1086714251</v>
+        <v>539249.5174117035</v>
       </c>
       <c r="N6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455405</v>
       </c>
       <c r="O6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455404</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>351.7374786276616</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>161.6396200245606</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>189.1754171278008</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>210.9918083226138</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>31.89920379082338</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>141.2104398502179</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.319358994805075e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>555.2356492667885</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>250.7532875461493</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L33" t="n">
-        <v>472.9319699494716</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>427.3331161036622</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4352186.762383725</v>
+        <v>4357126.025232757</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7041504.032822966</v>
+        <v>7041504.032822965</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>295.568361330683</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>138.5768413423341</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>118.0867093812782</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>56.58072854101201</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095423</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385022</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>114.4760112588799</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>134.4442626460251</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.8064269214858</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.34633178470847</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274165</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>110.4431276099403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4318,13 +4318,13 @@
         <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,13 +4603,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2502.143794132216</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
         <v>2149.375138862102</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4795,37 +4795,37 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2690.801940347511</v>
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>529.7758821321494</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>379.6592427198136</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>231.7461491374205</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5071,7 +5071,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5226,22 +5226,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466635</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407766</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="20">
@@ -5734,25 +5734,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,16 +6165,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822473</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,28 +6402,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028587</v>
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6660,13 +6660,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1410.687652593551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1410.687652593551</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1410.687652593551</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1121.559013807109</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>866.8745256012221</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>577.4573555642615</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>577.4573555642615</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>963.6521305054455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7417,31 +7417,31 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028583</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,16 +7824,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>31.95795138768926</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>91.26539274301203</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.43092547709159</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.61802061908431</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>141.6945157138877</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>600801.4655374266</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600801.4655374266</v>
+        <v>600801.4655374265</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.1194754178</v>
-      </c>
       <c r="I2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26435,7 +26435,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26444,22 +26444,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893469</v>
+        <v>-8560.145664893236</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496509</v>
       </c>
       <c r="D6" t="n">
         <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>148890.4961686441</v>
+        <v>149767.6283023937</v>
       </c>
       <c r="F6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.66477929</v>
       </c>
       <c r="G6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="H6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792896</v>
       </c>
       <c r="I6" t="n">
-        <v>674050.53264554</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="J6" t="n">
-        <v>497627.3134529474</v>
+        <v>498504.4455866969</v>
       </c>
       <c r="K6" t="n">
-        <v>674050.5326455405</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="L6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="M6" t="n">
-        <v>539249.5174117035</v>
+        <v>540126.6495454526</v>
       </c>
       <c r="N6" t="n">
-        <v>674050.5326455405</v>
+        <v>674927.6647792897</v>
       </c>
       <c r="O6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792896</v>
       </c>
       <c r="P6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792899</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>189.1754171278008</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>268.1512292747753</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>169.1289268480251</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.1947234108078</v>
+        <v>48.19472341080736</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
